--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26326,10 +26328,10 @@
         <v>37627.59193600625</v>
       </c>
       <c r="G2" t="n">
+        <v>37627.59193600624</v>
+      </c>
+      <c r="H2" t="n">
         <v>37627.59193600625</v>
-      </c>
-      <c r="H2" t="n">
-        <v>37627.59193600623</v>
       </c>
       <c r="I2" t="n">
         <v>37627.59193600625</v>
@@ -26338,16 +26340,16 @@
         <v>37627.59193600624</v>
       </c>
       <c r="K2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="L2" t="n">
         <v>37627.59193600625</v>
       </c>
       <c r="M2" t="n">
+        <v>37627.59193600624</v>
+      </c>
+      <c r="N2" t="n">
         <v>37627.59193600625</v>
-      </c>
-      <c r="N2" t="n">
-        <v>37627.59193600624</v>
       </c>
       <c r="O2" t="n">
         <v>37627.59193600625</v>
@@ -26534,10 +26536,10 @@
         <v>21501.48110628929</v>
       </c>
       <c r="G6" t="n">
+        <v>21501.48110628928</v>
+      </c>
+      <c r="H6" t="n">
         <v>21501.48110628929</v>
-      </c>
-      <c r="H6" t="n">
-        <v>21501.48110628927</v>
       </c>
       <c r="I6" t="n">
         <v>21501.48110628929</v>
@@ -26546,16 +26548,16 @@
         <v>21501.48110628928</v>
       </c>
       <c r="K6" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628929</v>
       </c>
       <c r="L6" t="n">
         <v>21501.48110628929</v>
       </c>
       <c r="M6" t="n">
+        <v>21501.48110628928</v>
+      </c>
+      <c r="N6" t="n">
         <v>21501.48110628929</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21501.48110628928</v>
       </c>
       <c r="O6" t="n">
         <v>21501.48110628929</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87906.62186438256</v>
+        <v>-38854.33200488246</v>
       </c>
     </row>
     <row r="7">
@@ -26328,7 +26328,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="G2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="H2" t="n">
         <v>37627.59193600625</v>
@@ -26337,7 +26337,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="J2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="K2" t="n">
         <v>37627.59193600625</v>
@@ -26346,7 +26346,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="M2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="N2" t="n">
         <v>37627.59193600625</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-27276.79286374548</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-27276.79286374548</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371071</v>
+        <v>-27276.79286374548</v>
       </c>
       <c r="E6" t="n">
-        <v>21501.48110628929</v>
+        <v>6350.807136254523</v>
       </c>
       <c r="F6" t="n">
-        <v>21501.48110628929</v>
+        <v>6350.807136254523</v>
       </c>
       <c r="G6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.807136254523</v>
       </c>
       <c r="H6" t="n">
-        <v>21501.48110628929</v>
+        <v>6350.807136254523</v>
       </c>
       <c r="I6" t="n">
-        <v>21501.48110628929</v>
+        <v>6350.807136254523</v>
       </c>
       <c r="J6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.807136254523</v>
       </c>
       <c r="K6" t="n">
-        <v>21501.48110628929</v>
+        <v>6350.807136254523</v>
       </c>
       <c r="L6" t="n">
-        <v>21501.48110628929</v>
+        <v>6350.807136254531</v>
       </c>
       <c r="M6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.807136254523</v>
       </c>
       <c r="N6" t="n">
-        <v>21501.48110628929</v>
+        <v>6350.807136254523</v>
       </c>
       <c r="O6" t="n">
-        <v>21501.48110628929</v>
+        <v>6350.807136254523</v>
       </c>
       <c r="P6" t="n">
-        <v>21501.48110628929</v>
+        <v>6350.807136254523</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38854.33200488246</v>
+        <v>75230.52647745605</v>
       </c>
     </row>
     <row r="7">
@@ -26340,13 +26340,13 @@
         <v>37627.59193600625</v>
       </c>
       <c r="K2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="L2" t="n">
         <v>37627.59193600625</v>
       </c>
       <c r="M2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="N2" t="n">
         <v>37627.59193600625</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27276.79286374548</v>
+        <v>-13641.18629071419</v>
       </c>
       <c r="C6" t="n">
-        <v>-27276.79286374548</v>
+        <v>-13641.18629071419</v>
       </c>
       <c r="D6" t="n">
-        <v>-27276.79286374548</v>
+        <v>-13641.18629071419</v>
       </c>
       <c r="E6" t="n">
-        <v>6350.807136254523</v>
+        <v>19986.41370928581</v>
       </c>
       <c r="F6" t="n">
-        <v>6350.807136254523</v>
+        <v>19986.41370928581</v>
       </c>
       <c r="G6" t="n">
-        <v>6350.807136254523</v>
+        <v>19986.41370928581</v>
       </c>
       <c r="H6" t="n">
-        <v>6350.807136254523</v>
+        <v>19986.41370928581</v>
       </c>
       <c r="I6" t="n">
-        <v>6350.807136254523</v>
+        <v>19986.41370928581</v>
       </c>
       <c r="J6" t="n">
-        <v>6350.807136254523</v>
+        <v>19986.41370928581</v>
       </c>
       <c r="K6" t="n">
-        <v>6350.807136254523</v>
+        <v>19986.4137092858</v>
       </c>
       <c r="L6" t="n">
-        <v>6350.807136254531</v>
+        <v>19986.41370928581</v>
       </c>
       <c r="M6" t="n">
-        <v>6350.807136254523</v>
+        <v>19986.4137092858</v>
       </c>
       <c r="N6" t="n">
-        <v>6350.807136254523</v>
+        <v>19986.41370928581</v>
       </c>
       <c r="O6" t="n">
-        <v>6350.807136254523</v>
+        <v>19986.41370928581</v>
       </c>
       <c r="P6" t="n">
-        <v>6350.807136254523</v>
+        <v>19986.41370928581</v>
       </c>
     </row>
   </sheetData>
